--- a/Unity/Assets/Config/Excel/RigidBodyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/RigidBodyConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772E902F-12BF-4EF6-B6C1-7B486036EAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF34F042-33A1-4A56-8D19-44053DCAF7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="1704" windowWidth="17280" windowHeight="10656" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RigidBodyProto" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Callback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBallCollisionCallback</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -486,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -502,11 +514,12 @@
     <col min="7" max="8" width="21.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.44140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.77734375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="37.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="28.77734375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -517,7 +530,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -530,7 +543,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -557,8 +570,11 @@
       <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -585,8 +601,11 @@
       <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -613,8 +632,11 @@
       <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
         <v>1</v>
       </c>
@@ -639,8 +661,11 @@
       <c r="J6" s="6">
         <v>1</v>
       </c>
+      <c r="K6" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -649,6 +674,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/RigidBodyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/RigidBodyConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF34F042-33A1-4A56-8D19-44053DCAF7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43181E4A-9180-4445-A12C-75A28D2F31C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3012" yWindow="5568" windowWidth="19440" windowHeight="6420" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RigidBodyProto" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Id</t>
   </si>
@@ -47,61 +47,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Mass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PosX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PosY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FireBall</t>
   </si>
   <si>
-    <t>Shape</t>
-  </si>
-  <si>
-    <t>Sphere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>#</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Args</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>long[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PosZ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -498,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -509,41 +458,26 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="21.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="37.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.77734375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="37.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -553,28 +487,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -584,28 +500,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -617,64 +515,22 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
